--- a/biology/Botanique/Campanula_rapunculus/Campanula_rapunculus.xlsx
+++ b/biology/Botanique/Campanula_rapunculus/Campanula_rapunculus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Campanula rapunculus
 La Campanule raiponce (Campanula rapunculus L.) encore appelée Raiponce cultivée est une plante herbacée bisannuelle de la famille des Campanulacées. À ne pas confondre avec le genre Phyteuma (les raiponces) qui comprend des espèces bien différentes, quoique relevant de la même famille des Campanulacées.
@@ -512,7 +524,9 @@
           <t>Noms communs</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La Campanule raiponce est aussi appelée en France bâton de Saint Jacques, Rave sauvage et Rampouchou dans le Sud-Est (mais ce mot, reponchon en occitan, désigne le Tamier commun en Aveyron), en Angleterre Rampion et Rampion Bellflower.
 </t>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante bisannuelle de 40 à 80 cm de hauteur.
 C'est une plante dressée, velue, non ramifiée, aux feuilles inférieures pétiolées, ovales, légèrement dentées, aux feuilles supérieures sessiles, étroites et lancéolées. L'inflorescence est une grappe lâche généralement non ramifiée, de fleurs bleu-pâle en cloches.
@@ -578,11 +594,14 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Distribution
-Elle se trouve en Asie occidentale, en Afrique septentrionale et en Europe.
-Elle occupe la France métropolitaine ; elle n'a pas été signalée dans 5 départements[1]. L'INPN ne la retrouve pas dans 23 départements, surtout du sud de la France[2].
-Biotope
-Campanula rapunculus se développe dans les bois, les prés et les lieux secs.
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle se trouve en Asie occidentale, en Afrique septentrionale et en Europe.
+Elle occupe la France métropolitaine ; elle n'a pas été signalée dans 5 départements. L'INPN ne la retrouve pas dans 23 départements, surtout du sud de la France.
 </t>
         </is>
       </c>
@@ -608,13 +627,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Statuts de protection, menaces</t>
+          <t>Aire de répartition et écologie</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'espèce n'est pas considérée comme étant menacée en France. En 2021 elle est classée Espèce de préoccupation mineure (LC) par l'UICN.
-Toutefois localement l'espèce peut se raréfier : elle est considérée Quasi menacée (NT), proche du seuil des espèces menacées ou qui pourrait être menacée si des mesures de conservation spécifiques n'étaient pas prises, en Nord-Pas-de-Calais.
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Campanula rapunculus se développe dans les bois, les prés et les lieux secs.
 </t>
         </is>
       </c>
@@ -640,10 +664,46 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Statuts de protection, menaces</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce n'est pas considérée comme étant menacée en France. En 2021 elle est classée Espèce de préoccupation mineure (LC) par l'UICN.
+Toutefois localement l'espèce peut se raréfier : elle est considérée Quasi menacée (NT), proche du seuil des espèces menacées ou qui pourrait être menacée si des mesures de conservation spécifiques n'étaient pas prises, en Nord-Pas-de-Calais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Campanula_rapunculus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Campanula_rapunculus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Culture</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Zones :	4-8
 Exposition :	soleil à mi-ombre 
@@ -655,37 +715,6 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Campanula_rapunculus</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Campanula_rapunculus</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Usages</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette plante était cultivée comme légume autrefois pour ses racines charnues et ses jeunes pousses. Dès le XVIe siècle elle est "améliorée" par rapport à sa souche "sauvage". Elle est progressivement supplantée par l'épinard au XVIIe siècle[3]. En 1946 elle était encore au catalogue Vilmorin-Andrieux. Les feuilles étaient utilisées en salade et les racines étaient soit râpées crues en salade, soit cuites à l'eau[4],[5].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
@@ -707,10 +736,45 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Usages</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante était cultivée comme légume autrefois pour ses racines charnues et ses jeunes pousses. Dès le XVIe siècle elle est "améliorée" par rapport à sa souche "sauvage". Elle est progressivement supplantée par l'épinard au XVIIe siècle. En 1946 elle était encore au catalogue Vilmorin-Andrieux. Les feuilles étaient utilisées en salade et les racines étaient soit râpées crues en salade, soit cuites à l'eau,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Campanula_rapunculus</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Campanula_rapunculus</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Dans la fiction</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">La Raiponce est la plante éponyme du conte  des frères Grimm, conte adapté par les studios Disney avec le film d'animation Raiponce sorti en 2010.
 </t>
